--- a/Nuclear_Fuel_Performance/NE591_Spring2021/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2021/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF4FE4-1D59-9E45-A840-872F33408BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98420505-DC2C-3743-B7C5-BB53898592A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22260" yWindow="3400" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -194,7 +194,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,10 +553,10 @@
   <dimension ref="B2:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
@@ -564,12 +564,12 @@
     <col min="18" max="18" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18">
       <c r="C5" t="s">
         <v>37</v>
       </c>
@@ -613,7 +613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -663,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18">
       <c r="C9">
         <f>(C6+C8)*C7</f>
         <v>14.200000000000001</v>
@@ -794,7 +794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -883,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -922,7 +922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18">
       <c r="C13">
         <f>(C10+C12)*C11</f>
         <v>19.200000000000003</v>
@@ -970,7 +970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -985,7 +985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18">
       <c r="C16">
         <f>C14*C15</f>
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18">
       <c r="C19">
         <f>C17*C18</f>
         <v>14.1</v>
@@ -1209,16 +1209,16 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18">
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18">
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18">
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18">
       <c r="B23" t="s">
         <v>47</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18">
       <c r="C25">
         <f>C23*C24</f>
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0.22522522522522523</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18">
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18">
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18">
       <c r="L29">
         <f t="shared" ref="L29" si="11">L27*L28</f>
         <v>11</v>
@@ -1340,7 +1340,7 @@
         <v>9.90990990990991E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18">
       <c r="B31" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>47.500000000000007</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:K31" si="12">SUM(D25,D22,D19,D16,D13,D9,D29)</f>
+        <f t="shared" ref="D31:J31" si="12">SUM(D25,D22,D19,D16,D13,D9,D29)</f>
         <v>34.950000000000003</v>
       </c>
       <c r="E31">
@@ -1389,7 +1389,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18">
       <c r="B32" t="s">
         <v>52</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0.6254545454545456</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" t="s">
         <v>34</v>
       </c>

--- a/Nuclear_Fuel_Performance/NE591_Spring2021/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE591_Spring2021/grading.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE591_Spring2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98420505-DC2C-3743-B7C5-BB53898592A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E675AE-65B4-984F-937E-A3166BB40FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22260" yWindow="3400" windowWidth="27640" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="27460" yWindow="3400" windowWidth="22440" windowHeight="16940" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -194,7 +203,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +216,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,13 +245,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +570,10 @@
   <dimension ref="B2:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
@@ -564,12 +581,12 @@
     <col min="18" max="18" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>37</v>
       </c>
@@ -613,7 +630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -663,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -704,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -742,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C8)*C7</f>
         <v>14.200000000000001</v>
@@ -794,13 +811,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
         <v>91</v>
       </c>
+      <c r="D10" s="4">
+        <v>95</v>
+      </c>
       <c r="E10">
         <v>92</v>
       </c>
@@ -827,11 +847,11 @@
       </c>
       <c r="M10" s="3">
         <f>AVERAGE(C10:K10)</f>
-        <v>81.75</v>
+        <v>83.222222222222229</v>
       </c>
       <c r="N10" s="3">
         <f>STDEV(C10:K10)</f>
-        <v>22.166577156997938</v>
+        <v>21.200104821543793</v>
       </c>
       <c r="O10" s="5"/>
       <c r="Q10" s="2" t="s">
@@ -841,7 +861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -883,7 +903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -922,17 +942,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>(C10+C12)*C11</f>
         <v>19.200000000000003</v>
       </c>
+      <c r="D13">
+        <f>(D10+D12)*D11</f>
+        <v>20</v>
+      </c>
       <c r="E13">
-        <f t="shared" ref="E13:L13" si="1">(E10+E12)*E11</f>
+        <f>(E10+E12)*E11</f>
         <v>19.400000000000002</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E13:L13" si="1">(F10+F12)*F11</f>
         <v>19</v>
       </c>
       <c r="G13">
@@ -970,9 +994,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>95</v>
+      </c>
+      <c r="D14" s="4">
+        <v>98</v>
+      </c>
+      <c r="E14" s="6">
+        <v>95</v>
+      </c>
+      <c r="F14" s="6">
+        <v>95</v>
+      </c>
+      <c r="G14" s="6">
+        <v>95</v>
+      </c>
+      <c r="H14" s="6">
+        <v>95</v>
+      </c>
+      <c r="I14" s="6">
+        <v>95</v>
+      </c>
+      <c r="J14" s="6">
+        <v>95</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -985,7 +1033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -1027,38 +1075,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C16">
         <f>C14*C15</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <f t="shared" ref="D16" si="2">D14*D15</f>
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E16">
         <f t="shared" ref="E16:K16" si="3">E14*E15</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
@@ -1079,7 +1127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -1163,7 +1211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C19">
         <f>C17*C18</f>
         <v>14.1</v>
@@ -1209,25 +1257,49 @@
         <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>47</v>
       </c>
+      <c r="C23">
+        <v>94</v>
+      </c>
+      <c r="D23" s="4">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+      <c r="F23">
+        <v>98</v>
+      </c>
+      <c r="G23">
+        <v>96</v>
+      </c>
+      <c r="H23">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>94</v>
+      </c>
+      <c r="J23">
+        <v>96</v>
+      </c>
       <c r="L23">
         <v>100</v>
       </c>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -1263,38 +1335,38 @@
       </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C25">
         <f>C23*C24</f>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25" si="8">D23*D24</f>
-        <v>0</v>
+        <v>23.75</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:K25" si="9">E23*E24</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="F25">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="G25">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="I25">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J25">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K25">
         <f t="shared" si="9"/>
@@ -1309,10 +1381,10 @@
         <v>0.22522522522522523</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -1321,7 +1393,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1402,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L29">
         <f t="shared" ref="L29" si="11">L27*L28</f>
         <v>11</v>
@@ -1340,103 +1412,106 @@
         <v>9.90990990990991E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
         <f>SUM(C25,C22,C19,C16,C13,C9,C29)</f>
-        <v>47.500000000000007</v>
+        <v>90.000000000000014</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:J31" si="12">SUM(D25,D22,D19,D16,D13,D9,D29)</f>
-        <v>34.950000000000003</v>
+        <f>SUM(D25,D22,D19,D16,D13,D9,D29)</f>
+        <v>98.300000000000011</v>
       </c>
       <c r="E31">
-        <f t="shared" si="12"/>
-        <v>52.250000000000007</v>
+        <f t="shared" ref="D31:J31" si="12">SUM(E25,E22,E19,E16,E13,E9,E29)</f>
+        <v>93.75</v>
       </c>
       <c r="F31">
         <f t="shared" si="12"/>
-        <v>53.900000000000006</v>
+        <v>97.4</v>
       </c>
       <c r="G31">
         <f t="shared" si="12"/>
-        <v>52.850000000000009</v>
+        <v>95.85</v>
       </c>
       <c r="H31">
         <f t="shared" si="12"/>
-        <v>47.599999999999994</v>
+        <v>88.1</v>
       </c>
       <c r="I31">
         <f t="shared" si="12"/>
-        <v>49</v>
+        <v>91.5</v>
       </c>
       <c r="J31">
         <f t="shared" si="12"/>
-        <v>50.300000000000004</v>
+        <v>93.300000000000011</v>
       </c>
       <c r="K31">
         <f>SUM(K25,K22,K19,K16,K13,K9,K29)</f>
         <v>34.400000000000006</v>
       </c>
       <c r="L31">
-        <f>SUM(L9,L19,L13)</f>
-        <v>55</v>
+        <f>SUM(L9,L19,L13,L25,L16)</f>
+        <v>100</v>
       </c>
       <c r="O31">
         <f>L9+L13+L16+L19+L25+L29</f>
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>52</v>
       </c>
       <c r="L32">
-        <f>SUM(L9,L19,L13)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
+        <f>SUM(L9,L19,L13,L16,L25)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1">
         <f>C31/$L$31</f>
-        <v>0.86363636363636376</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D31/$L$31</f>
+        <v>0.9830000000000001</v>
+      </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:K34" si="13">E31/$L$31</f>
-        <v>0.95000000000000018</v>
+        <f>E31/$L$31</f>
+        <v>0.9375</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="13"/>
-        <v>0.98000000000000009</v>
+        <f t="shared" ref="E34:K34" si="13">F31/$L$31</f>
+        <v>0.97400000000000009</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="13"/>
-        <v>0.96090909090909105</v>
+        <v>0.95849999999999991</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="13"/>
-        <v>0.86545454545454537</v>
+        <v>0.88099999999999989</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="13"/>
-        <v>0.89090909090909087</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="13"/>
-        <v>0.91454545454545466</v>
+        <v>0.93300000000000016</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="13"/>
-        <v>0.6254545454545456</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
+        <v>0.34400000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>34</v>
       </c>
